--- a/Assets/Refactoring/06_Data/Excel/Localizer.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/Localizer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4238BA-C845-46A3-8138-1B8CC349EC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE69464C-EB14-4166-840A-AF7018AEADFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17865" yWindow="4140" windowWidth="21810" windowHeight="13485" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>

--- a/Assets/Refactoring/06_Data/Excel/Localizer.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/Localizer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE69464C-EB14-4166-840A-AF7018AEADFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4614107A-BBDE-4536-AE27-E80CE6CEFAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17865" yWindow="4140" windowWidth="21810" windowHeight="13485" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="0" yWindow="3420" windowWidth="26130" windowHeight="13485" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="103">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -566,6 +566,26 @@
   </si>
   <si>
     <t>저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰還</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_Recall_GameController</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -974,7 +994,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1429,6 +1449,21 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">

--- a/Assets/Refactoring/06_Data/Excel/Localizer.xlsx
+++ b/Assets/Refactoring/06_Data/Excel/Localizer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\작업\2D_Defense\Assets\Refactoring\06_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4614107A-BBDE-4536-AE27-E80CE6CEFAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB9B4C0-26C0-4E0F-BD7E-0775885C0139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3420" windowWidth="26130" windowHeight="13485" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="35025" yWindow="3900" windowWidth="20085" windowHeight="17205" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="128">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -588,12 +588,126 @@
     <t>ID_Recall_GameController</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ID_LClick</t>
+  </si>
+  <si>
+    <t>ID_LClickDesc</t>
+  </si>
+  <si>
+    <t>ID_RClick</t>
+  </si>
+  <si>
+    <t>ID_RClickDesc</t>
+  </si>
+  <si>
+    <t>ID_Loading</t>
+  </si>
+  <si>
+    <t>좌클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로딩중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left Click</t>
+  </si>
+  <si>
+    <t>左クリック</t>
+  </si>
+  <si>
+    <r>
+      <t>左</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>击</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right Click</t>
+  </si>
+  <si>
+    <t>Select Unit</t>
+  </si>
+  <si>
+    <t>ユニット選択</t>
+  </si>
+  <si>
+    <t>选择单位</t>
+  </si>
+  <si>
+    <t>右クリック</t>
+  </si>
+  <si>
+    <t>右键点击</t>
+  </si>
+  <si>
+    <t>선택 취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deselect</t>
+  </si>
+  <si>
+    <t>選択解除</t>
+  </si>
+  <si>
+    <t>取消选择</t>
+  </si>
+  <si>
+    <t>Loading</t>
+  </si>
+  <si>
+    <t>読み込み中</t>
+  </si>
+  <si>
+    <t>加载中</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,6 +751,21 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="새굴림"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -994,7 +1123,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1467,18 +1596,93 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" t="s">
+        <v>118</v>
+      </c>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" t="s">
+        <v>124</v>
+      </c>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
